--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\Cellma4ClinicalAuto\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165F6D3F-A87D-4FE2-93A2-F683C13E0269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACD5EA1-6ECF-4927-98D2-11A9A21298F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="42" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="392">
   <si>
     <t>username</t>
   </si>
@@ -1255,6 +1255,18 @@
   </si>
   <si>
     <t>Smoking Status: Current Smoker</t>
+  </si>
+  <si>
+    <t>thayne.auto</t>
+  </si>
+  <si>
+    <t>Thayne@2024</t>
+  </si>
+  <si>
+    <t>medadt_medication_status</t>
+  </si>
+  <si>
+    <t>given</t>
   </si>
 </sst>
 </file>
@@ -1612,16 +1624,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE4FC9F-2982-4FD6-8BD6-4330FF8DA2DE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1634,24 +1646,33 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>388</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{74AAE140-4AA4-40CF-9A37-EC50DF49193E}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{0C05B6B9-5554-4DE8-9F6A-6002C7FF4022}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{74AAE140-4AA4-40CF-9A37-EC50DF49193E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0C05B6B9-5554-4DE8-9F6A-6002C7FF4022}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{633E0931-E2A1-43F7-A8FD-272EF6422EB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1665,10 +1686,10 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1700,14 +1721,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1763,11 +1784,11 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1818,10 +1839,10 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1859,14 +1880,14 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="19.54296875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1898,7 +1919,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9" ht="29">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -1940,17 +1961,17 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2024,10 +2045,10 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2059,16 +2080,16 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="9" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+    <col min="9" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2170,16 +2191,16 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2268,10 +2289,10 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2303,11 +2324,11 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="2" customFormat="1">
@@ -2456,7 +2477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="2" customFormat="1" ht="45">
+    <row r="2" spans="1:48" s="2" customFormat="1" ht="43.5">
       <c r="B2" s="3" t="s">
         <v>229</v>
       </c>
@@ -2558,14 +2579,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2621,14 +2642,14 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2684,11 +2705,11 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2726,17 +2747,17 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2777,7 +2798,7 @@
       </c>
       <c r="D2" s="7">
         <f ca="1">TODAY()</f>
-        <v>45650</v>
+        <v>45679</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>206</v>
@@ -2806,16 +2827,16 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2856,7 +2877,7 @@
       </c>
       <c r="D2" s="7">
         <f ca="1">TODAY()</f>
-        <v>45650</v>
+        <v>45679</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>207</v>
@@ -2884,11 +2905,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2926,20 +2947,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="4" max="6" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2995,11 +3016,11 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45650</v>
+        <v>45679</v>
       </c>
       <c r="D2" s="11" t="str">
         <f ca="1">TEXT(C2, "DD-MM-YYYY")</f>
-        <v>24-12-2024</v>
+        <v>22-01-2025</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>106</v>
@@ -3045,16 +3066,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3104,7 +3125,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">TODAY()</f>
-        <v>45650</v>
+        <v>45679</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>106</v>
@@ -3147,11 +3168,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3189,9 +3210,9 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3235,7 +3256,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="75">
+    <row r="2" spans="1:13" ht="58">
       <c r="A2" t="s">
         <v>241</v>
       </c>
@@ -3287,7 +3308,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3301,20 +3322,20 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3359,7 +3380,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30">
+    <row r="2" spans="1:13" ht="29">
       <c r="A2" t="s">
         <v>241</v>
       </c>
@@ -3413,10 +3434,10 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3448,19 +3469,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3498,7 +3519,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11" ht="29">
       <c r="A2" t="s">
         <v>256</v>
       </c>
@@ -3546,19 +3567,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3596,7 +3617,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11" ht="29">
       <c r="A2" t="s">
         <v>256</v>
       </c>
@@ -3644,10 +3665,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3679,14 +3700,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3709,7 +3730,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="29">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -3742,12 +3763,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3791,10 +3812,10 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3826,12 +3847,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3848,7 +3869,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="43.5">
       <c r="A2" t="s">
         <v>280</v>
       </c>
@@ -3875,12 +3896,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3897,7 +3918,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="43.5">
       <c r="A2" t="s">
         <v>280</v>
       </c>
@@ -3918,45 +3939,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD9439C-0973-45AC-88BC-21584AF7E144}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" customWidth="1"/>
-    <col min="19" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
-    <col min="22" max="22" width="21" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" customWidth="1"/>
-    <col min="28" max="28" width="28.42578125" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" customWidth="1"/>
-    <col min="30" max="30" width="17.140625" customWidth="1"/>
-    <col min="31" max="31" width="27.140625" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -4053,8 +4079,11 @@
       <c r="AF1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>232</v>
       </c>
@@ -4145,9 +4174,13 @@
       <c r="AF2" s="9" t="s">
         <v>211</v>
       </c>
+      <c r="AG2" t="s">
+        <v>391</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4159,11 +4192,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4201,12 +4234,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4223,7 +4256,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="29">
       <c r="A2" t="s">
         <v>285</v>
       </c>
@@ -4250,12 +4283,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4272,7 +4305,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="29">
       <c r="A2" t="s">
         <v>285</v>
       </c>
@@ -4299,11 +4332,11 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4341,11 +4374,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="4" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4362,7 +4395,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="29">
       <c r="A2" t="s">
         <v>290</v>
       </c>
@@ -4389,11 +4422,11 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="4" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4410,7 +4443,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="29">
       <c r="A2" t="s">
         <v>290</v>
       </c>
@@ -4433,15 +4466,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206A2E86-90FC-4080-A7DC-7A2B6DBA9D36}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4479,15 +4512,15 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -4606,15 +4639,15 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4758,13 +4791,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="3" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="3" width="25.54296875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4820,25 +4853,25 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" customWidth="1"/>
+    <col min="20" max="20" width="17.7265625" customWidth="1"/>
+    <col min="21" max="21" width="12.81640625" customWidth="1"/>
+    <col min="22" max="22" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -4984,13 +5017,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="3" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="3" width="25.54296875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5046,10 +5079,10 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5081,12 +5114,12 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5131,11 +5164,11 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5180,11 +5213,11 @@
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5222,19 +5255,19 @@
       <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5345,16 +5378,16 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5441,11 +5474,11 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5481,7 +5514,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
@@ -5498,16 +5531,16 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="1" max="2" width="23.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5581,14 +5614,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5638,15 +5671,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -5901,7 +5925,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
@@ -5912,15 +5936,16 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5939,7 +5964,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5948,4 +5973,12 @@
     <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>